--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,193 +49,181 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>tried</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>di</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>size</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>picture</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>better</t>
+    <t>look</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>could</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>way</t>
   </si>
   <si>
     <t>expected</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>little</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>bought</t>
+    <t>time</t>
   </si>
   <si>
     <t>really</t>
@@ -244,109 +232,109 @@
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
+    <t>book</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
+    <t>daughter</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>good</t>
   </si>
   <si>
     <t>son</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>year</t>
@@ -713,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -782,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -800,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -832,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -850,19 +838,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K4">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -874,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -882,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8450704225352113</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -900,19 +888,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -924,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -932,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -950,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K6">
-        <v>0.8307692307692308</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -974,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -982,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7454545454545455</v>
+        <v>0.7378640776699029</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1000,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K7">
-        <v>0.78125</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1024,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1032,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7378640776699029</v>
+        <v>0.734375</v>
       </c>
       <c r="C8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>152</v>
+        <v>47</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1050,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K8">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1074,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1082,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7364864864864865</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1100,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K9">
-        <v>0.6542324246771879</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>456</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>456</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1124,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>241</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1132,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.71875</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1150,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K10">
-        <v>0.6521739130434783</v>
+        <v>0.6212338593974175</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1174,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>24</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1182,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7150537634408602</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C11">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1200,19 +1188,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>0.5705394190871369</v>
+        <v>0.6016597510373444</v>
       </c>
       <c r="L11">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M11">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1224,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1232,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6296296296296297</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1250,19 +1238,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K12">
-        <v>0.5409836065573771</v>
+        <v>0.5660377358490566</v>
       </c>
       <c r="L12">
-        <v>660</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>660</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1274,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>560</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1282,13 +1270,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.625</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1300,19 +1288,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K13">
-        <v>0.4892966360856269</v>
+        <v>0.5361247947454844</v>
       </c>
       <c r="L13">
-        <v>160</v>
+        <v>653</v>
       </c>
       <c r="M13">
-        <v>160</v>
+        <v>655</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1321,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>167</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1332,13 +1320,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.5625</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1350,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K14">
-        <v>0.4698795180722892</v>
+        <v>0.427710843373494</v>
       </c>
       <c r="L14">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="M14">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1374,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1382,13 +1370,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6134453781512605</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="C15">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1400,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K15">
-        <v>0.4603174603174603</v>
+        <v>0.4220183486238532</v>
       </c>
       <c r="L15">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="M15">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1424,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>102</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1432,13 +1420,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C16">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1450,19 +1438,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27</v>
+        <v>155</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K16">
-        <v>0.4416666666666667</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L16">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="M16">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1474,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1482,13 +1470,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1500,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K17">
-        <v>0.4339622641509434</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1524,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1532,13 +1520,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5275590551181102</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1550,19 +1538,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K18">
-        <v>0.3064516129032258</v>
+        <v>0.328125</v>
       </c>
       <c r="L18">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1574,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>129</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1582,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5185185185185185</v>
+        <v>0.4842105263157895</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1600,19 +1588,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K19">
-        <v>0.3046875</v>
+        <v>0.3103448275862069</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1624,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1632,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5180722891566265</v>
+        <v>0.4834123222748815</v>
       </c>
       <c r="C20">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1650,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K20">
-        <v>0.3015873015873016</v>
+        <v>0.2937062937062937</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1674,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1682,13 +1670,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5071090047393365</v>
+        <v>0.4803149606299212</v>
       </c>
       <c r="C21">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1700,31 +1688,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K21">
-        <v>0.3006993006993007</v>
+        <v>0.2822580645161291</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1732,13 +1720,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4921875</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1750,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K22">
-        <v>0.2735042735042735</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="L22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1774,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1782,13 +1770,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4842105263157895</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="C23">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1800,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K23">
-        <v>0.256</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1824,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>93</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1832,7 +1820,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4603174603174603</v>
+        <v>0.4328358208955224</v>
       </c>
       <c r="C24">
         <v>29</v>
@@ -1850,19 +1838,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K24">
-        <v>0.248995983935743</v>
+        <v>0.2570281124497992</v>
       </c>
       <c r="L24">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M24">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1874,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1882,13 +1870,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4181818181818182</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1900,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K25">
-        <v>0.2398945518453427</v>
+        <v>0.2262323943661972</v>
       </c>
       <c r="L25">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="M25">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>865</v>
+        <v>879</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1932,13 +1920,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.405940594059406</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="C26">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1950,31 +1938,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K26">
-        <v>0.2039106145251397</v>
+        <v>0.1528150134048257</v>
       </c>
       <c r="L26">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1982,13 +1970,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4029850746268657</v>
+        <v>0.400990099009901</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2000,31 +1988,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K27">
-        <v>0.1602605863192182</v>
+        <v>0.1487279843444227</v>
       </c>
       <c r="L27">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="M27">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>1289</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2032,13 +2020,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3707865168539326</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2050,19 +2038,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K28">
-        <v>0.1524064171122995</v>
+        <v>0.1448467966573816</v>
       </c>
       <c r="L28">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M28">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2074,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2082,13 +2070,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.359375</v>
+        <v>0.3195876288659794</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2100,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K29">
-        <v>0.1206225680933852</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2124,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>226</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2132,13 +2120,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3265306122448979</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2150,31 +2138,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K30">
-        <v>0.1021671826625387</v>
+        <v>0.1179487179487179</v>
       </c>
       <c r="L30">
+        <v>23</v>
+      </c>
+      <c r="M30">
         <v>33</v>
       </c>
-      <c r="M30">
-        <v>34</v>
-      </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>290</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2182,13 +2170,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3247863247863248</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2200,31 +2188,31 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K31">
-        <v>0.09906291834002677</v>
+        <v>0.1003460207612457</v>
       </c>
       <c r="L31">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="M31">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>673</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2232,49 +2220,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3041237113402062</v>
+        <v>0.2773722627737226</v>
       </c>
       <c r="C32">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K32">
-        <v>0.09688581314878893</v>
+        <v>0.09765625</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2282,13 +2270,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.288659793814433</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2300,31 +2288,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K33">
-        <v>0.08387096774193549</v>
+        <v>0.09666666666666666</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O33">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2332,49 +2320,49 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.28</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C34">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D34">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K34">
-        <v>0.07641196013289037</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L34">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N34">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="O34">
-        <v>0.04000000000000004</v>
+        <v>0.15</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2382,13 +2370,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2721518987341772</v>
+        <v>0.2753164556962026</v>
       </c>
       <c r="C35">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D35">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2400,31 +2388,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K35">
-        <v>0.06735751295336788</v>
+        <v>0.0856760374832664</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="M35">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="N35">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="O35">
-        <v>0.28</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>360</v>
+        <v>683</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2453,16 +2441,16 @@
         <v>146</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K36">
-        <v>0.0630841121495327</v>
+        <v>0.06025824964131994</v>
       </c>
       <c r="L36">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="M36">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N36">
         <v>0.84</v>
@@ -2474,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>401</v>
+        <v>655</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2482,49 +2470,49 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2644873699851412</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C37">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>495</v>
+        <v>73</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K37">
-        <v>0.06169296987087518</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L37">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="N37">
-        <v>0.84</v>
+        <v>0.73</v>
       </c>
       <c r="O37">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>654</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2532,13 +2520,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2531645569620253</v>
+        <v>0.2462908011869436</v>
       </c>
       <c r="C38">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="D38">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2550,31 +2538,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>236</v>
+        <v>508</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K38">
-        <v>0.04462474645030426</v>
+        <v>0.04480651731160896</v>
       </c>
       <c r="L38">
         <v>22</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N38">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="O38">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2582,13 +2570,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2523364485981308</v>
+        <v>0.2429906542056075</v>
       </c>
       <c r="C39">
+        <v>26</v>
+      </c>
+      <c r="D39">
         <v>27</v>
-      </c>
-      <c r="D39">
-        <v>28</v>
       </c>
       <c r="E39">
         <v>0.04</v>
@@ -2600,31 +2588,31 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K39">
-        <v>0.04107142857142857</v>
+        <v>0.04285714285714286</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N39">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="O39">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2632,13 +2620,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2228571428571429</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2650,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>136</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2658,25 +2646,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2206572769953052</v>
+        <v>0.2219020172910663</v>
       </c>
       <c r="C41">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D41">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>166</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2684,25 +2672,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2185430463576159</v>
+        <v>0.2185792349726776</v>
       </c>
       <c r="C42">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>354</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2710,13 +2698,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2183908045977012</v>
+        <v>0.2165605095541401</v>
       </c>
       <c r="C43">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D43">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2728,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>272</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2736,25 +2724,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2165605095541401</v>
+        <v>0.215962441314554</v>
       </c>
       <c r="C44">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>123</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2762,25 +2750,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1979166666666667</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2788,25 +2776,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1889763779527559</v>
+        <v>0.203125</v>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E46">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2814,13 +2802,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.188034188034188</v>
+        <v>0.1977777777777778</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="E47">
         <v>0.04</v>
@@ -2832,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>95</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2840,13 +2828,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1868131868131868</v>
+        <v>0.1841359773371105</v>
       </c>
       <c r="C48">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E48">
         <v>0.03</v>
@@ -2858,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>148</v>
+        <v>288</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2866,25 +2854,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1857142857142857</v>
+        <v>0.1673469387755102</v>
       </c>
       <c r="C49">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2892,25 +2880,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1810699588477366</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C50">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D50">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E50">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F50">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>199</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2918,13 +2906,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1780104712041885</v>
+        <v>0.1570680628272251</v>
       </c>
       <c r="C51">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D51">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2936,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2944,13 +2932,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1660377358490566</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="C52">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E52">
         <v>0.04</v>
@@ -2962,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>221</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2970,25 +2958,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1534090909090909</v>
+        <v>0.1510416666666667</v>
       </c>
       <c r="C53">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D53">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="E53">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>298</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2996,25 +2984,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1455696202531646</v>
+        <v>0.1412742382271468</v>
       </c>
       <c r="C54">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>135</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3022,25 +3010,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1352941176470588</v>
+        <v>0.1299638989169675</v>
       </c>
       <c r="C55">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D55">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E55">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="F55">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>147</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3048,25 +3036,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1297297297297297</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="C56">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E56">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="F56">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>161</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3074,25 +3062,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1273885350318471</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="C57">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D57">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E57">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F57">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>274</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3100,25 +3088,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1263736263736264</v>
+        <v>0.1082802547770701</v>
       </c>
       <c r="C58">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D58">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E58">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="F58">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3126,25 +3114,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1213483146067416</v>
+        <v>0.1009615384615385</v>
       </c>
       <c r="C59">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D59">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E59">
-        <v>0.07000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="F59">
-        <v>0.9299999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>391</v>
+        <v>374</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3152,25 +3140,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1139896373056995</v>
+        <v>0.09752066115702479</v>
       </c>
       <c r="C60">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D60">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="E60">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="F60">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>171</v>
+        <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3178,25 +3166,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.111913357400722</v>
+        <v>0.09254498714652956</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="E61">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="F61">
-        <v>0.91</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>246</v>
+        <v>706</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3204,25 +3192,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1064891846921797</v>
+        <v>0.08962264150943396</v>
       </c>
       <c r="C62">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D62">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E62">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F62">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>537</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3230,25 +3218,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.09004739336492891</v>
+        <v>0.0589622641509434</v>
       </c>
       <c r="C63">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E63">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="F63">
-        <v>0.76</v>
+        <v>0.83</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3256,25 +3244,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.08254716981132075</v>
+        <v>0.05361305361305362</v>
       </c>
       <c r="C64">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D64">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E64">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="F64">
-        <v>0.88</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3282,129 +3270,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.08166409861325115</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="C65">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D65">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E65">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="F65">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66">
-        <v>0.08118556701030928</v>
-      </c>
-      <c r="C66">
-        <v>63</v>
-      </c>
-      <c r="D66">
-        <v>81</v>
-      </c>
-      <c r="E66">
-        <v>0.22</v>
-      </c>
-      <c r="F66">
-        <v>0.78</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.06267806267806268</v>
-      </c>
-      <c r="C67">
-        <v>22</v>
-      </c>
-      <c r="D67">
-        <v>22</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="C68">
-        <v>26</v>
-      </c>
-      <c r="D68">
-        <v>36</v>
-      </c>
-      <c r="E68">
-        <v>0.28</v>
-      </c>
-      <c r="F68">
-        <v>0.72</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.05194805194805195</v>
-      </c>
-      <c r="C69">
-        <v>24</v>
-      </c>
-      <c r="D69">
-        <v>31</v>
-      </c>
-      <c r="E69">
-        <v>0.23</v>
-      </c>
-      <c r="F69">
-        <v>0.77</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
